--- a/Correlation data/Bitemarks_Natural reef.xlsx
+++ b/Correlation data/Bitemarks_Natural reef.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>101.4681329540339</v>
+        <v>101.4681329540338</v>
       </c>
       <c r="D7">
         <v>73</v>
